--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tfpi-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tfpi-Lrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.745631333333333</v>
+        <v>1.611874666666667</v>
       </c>
       <c r="H2">
-        <v>11.236894</v>
+        <v>4.835624</v>
       </c>
       <c r="I2">
-        <v>0.1419671142338921</v>
+        <v>0.06646895152072402</v>
       </c>
       <c r="J2">
-        <v>0.1419671142338921</v>
+        <v>0.06646895152072402</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N2">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O2">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P2">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q2">
-        <v>78.96470183336154</v>
+        <v>5.571066532078222</v>
       </c>
       <c r="R2">
-        <v>710.6823165002539</v>
+        <v>50.139598788704</v>
       </c>
       <c r="S2">
-        <v>0.008114925637129141</v>
+        <v>0.0006541565664899854</v>
       </c>
       <c r="T2">
-        <v>0.008114925637129141</v>
+        <v>0.0006541565664899853</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.745631333333333</v>
+        <v>1.611874666666667</v>
       </c>
       <c r="H3">
-        <v>11.236894</v>
+        <v>4.835624</v>
       </c>
       <c r="I3">
-        <v>0.1419671142338921</v>
+        <v>0.06646895152072402</v>
       </c>
       <c r="J3">
-        <v>0.1419671142338921</v>
+        <v>0.06646895152072402</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q3">
-        <v>1129.682966983858</v>
+        <v>486.1416390987005</v>
       </c>
       <c r="R3">
-        <v>10167.14670285472</v>
+        <v>4375.274751888304</v>
       </c>
       <c r="S3">
-        <v>0.1160935589923593</v>
+        <v>0.05708292005300976</v>
       </c>
       <c r="T3">
-        <v>0.1160935589923593</v>
+        <v>0.05708292005300975</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.745631333333333</v>
+        <v>1.611874666666667</v>
       </c>
       <c r="H4">
-        <v>11.236894</v>
+        <v>4.835624</v>
       </c>
       <c r="I4">
-        <v>0.1419671142338921</v>
+        <v>0.06646895152072402</v>
       </c>
       <c r="J4">
-        <v>0.1419671142338921</v>
+        <v>0.06646895152072402</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q4">
-        <v>172.8056367226229</v>
+        <v>74.3642401780418</v>
       </c>
       <c r="R4">
-        <v>1555.250730503606</v>
+        <v>669.2781616023761</v>
       </c>
       <c r="S4">
-        <v>0.0177586296044036</v>
+        <v>0.008731874901224283</v>
       </c>
       <c r="T4">
-        <v>0.0177586296044036</v>
+        <v>0.008731874901224282</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>47.06867</v>
       </c>
       <c r="I5">
-        <v>0.5946663954227359</v>
+        <v>0.6469909869698216</v>
       </c>
       <c r="J5">
-        <v>0.5946663954227359</v>
+        <v>0.6469909869698216</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N5">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O5">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P5">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q5">
-        <v>330.7643101592744</v>
+        <v>54.22727080236888</v>
       </c>
       <c r="R5">
-        <v>2976.87879143347</v>
+        <v>488.04543722132</v>
       </c>
       <c r="S5">
-        <v>0.03399148883032725</v>
+        <v>0.006367384965508107</v>
       </c>
       <c r="T5">
-        <v>0.03399148883032725</v>
+        <v>0.006367384965508106</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>47.06867</v>
       </c>
       <c r="I6">
-        <v>0.5946663954227359</v>
+        <v>0.6469909869698216</v>
       </c>
       <c r="J6">
-        <v>0.5946663954227359</v>
+        <v>0.6469909869698216</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q6">
         <v>4731.972623180757</v>
@@ -818,10 +818,10 @@
         <v>42587.75360862682</v>
       </c>
       <c r="S6">
-        <v>0.4862882409798379</v>
+        <v>0.5556298683709689</v>
       </c>
       <c r="T6">
-        <v>0.4862882409798379</v>
+        <v>0.5556298683709689</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>47.06867</v>
       </c>
       <c r="I7">
-        <v>0.5946663954227359</v>
+        <v>0.6469909869698216</v>
       </c>
       <c r="J7">
-        <v>0.5946663954227359</v>
+        <v>0.6469909869698216</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q7">
         <v>723.8416139759812</v>
@@ -880,10 +880,10 @@
         <v>6514.574525783831</v>
       </c>
       <c r="S7">
-        <v>0.07438666561257085</v>
+        <v>0.0849937336333446</v>
       </c>
       <c r="T7">
-        <v>0.07438666561257085</v>
+        <v>0.08499373363334459</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>20.845823</v>
       </c>
       <c r="I8">
-        <v>0.263366490343372</v>
+        <v>0.2865400615094543</v>
       </c>
       <c r="J8">
-        <v>0.263366490343372</v>
+        <v>0.2865400615094543</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N8">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O8">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P8">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q8">
-        <v>146.4892520714381</v>
+        <v>24.01623179323422</v>
       </c>
       <c r="R8">
-        <v>1318.403268642943</v>
+        <v>216.146086139108</v>
       </c>
       <c r="S8">
-        <v>0.01505418699239811</v>
+        <v>0.002819994275679409</v>
       </c>
       <c r="T8">
-        <v>0.01505418699239811</v>
+        <v>0.002819994275679408</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>20.845823</v>
       </c>
       <c r="I9">
-        <v>0.263366490343372</v>
+        <v>0.2865400615094543</v>
       </c>
       <c r="J9">
-        <v>0.263366490343372</v>
+        <v>0.2865400615094543</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q9">
         <v>2095.701105293007</v>
@@ -1004,10 +1004,10 @@
         <v>18861.30994763706</v>
       </c>
       <c r="S9">
-        <v>0.215367857184982</v>
+        <v>0.2460779514180987</v>
       </c>
       <c r="T9">
-        <v>0.215367857184982</v>
+        <v>0.2460779514180986</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>20.845823</v>
       </c>
       <c r="I10">
-        <v>0.263366490343372</v>
+        <v>0.2865400615094543</v>
       </c>
       <c r="J10">
-        <v>0.263366490343372</v>
+        <v>0.2865400615094543</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q10">
         <v>320.5757495373808</v>
@@ -1066,10 +1066,10 @@
         <v>2885.181745836427</v>
       </c>
       <c r="S10">
-        <v>0.03294444616599191</v>
+        <v>0.03764211581567629</v>
       </c>
       <c r="T10">
-        <v>0.03294444616599191</v>
+        <v>0.03764211581567629</v>
       </c>
     </row>
   </sheetData>
